--- a/src/com/main/白名单/研一同学.xlsx
+++ b/src/com/main/白名单/研一同学.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wj\Desktop\Sign\src\com\main\白名单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787F7D03-EDB5-4E37-BD06-3D2016877589}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6FFB4E-87CA-4AD6-8074-85A40BBD0E68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,102 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>曹翔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈桥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>贺崇德</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄政</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔令斌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李嘉瑾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李胜勇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李馨月</t>
-  </si>
-  <si>
-    <t>栗洪涛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘纪海</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘铖龙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>娄雅茹</t>
-  </si>
-  <si>
-    <t>彭娅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阮俊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>师丽彪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王国俊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王丽丽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武玄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐俊章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐磊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐书博</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐鑫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵勐</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,13 +42,6 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -163,11 +66,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -448,130 +348,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
